--- a/ARQUIVO CLESIA.xlsx
+++ b/ARQUIVO CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67919682-D26C-4D0B-A19E-C568BFB822D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58809C95-E523-424E-B9C8-AEF7356DE87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2036,7 @@
       <c r="C8" s="11">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="10">
@@ -2053,7 +2053,7 @@
       <c r="C9" s="11">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="10">
@@ -2061,13 +2061,21 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="9">
         <v>45025</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10">
+        <v>54</v>
+      </c>
+      <c r="E10" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
@@ -2264,11 +2272,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2306,7 +2314,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,7 +2324,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CLESIA.xlsx
+++ b/ARQUIVO CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58809C95-E523-424E-B9C8-AEF7356DE87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D9C583-B99C-4DBF-BA0B-E0FCB49BEC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A11" sqref="A11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,13 +2078,21 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="9">
         <v>45026</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10">
+        <v>54</v>
+      </c>
+      <c r="E11" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
@@ -2272,11 +2280,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2314,7 +2322,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2324,7 +2332,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CLESIA.xlsx
+++ b/ARQUIVO CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D9C583-B99C-4DBF-BA0B-E0FCB49BEC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B387C77-E5F8-4E5A-8D77-0496E6F038C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E12"/>
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,13 +2095,21 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="9">
         <v>45027</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
@@ -2280,11 +2288,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2322,7 +2330,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2332,7 +2340,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CLESIA.xlsx
+++ b/ARQUIVO CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B387C77-E5F8-4E5A-8D77-0496E6F038C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD284B-CD98-48F2-9E5E-BE7C0B1F2CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,13 +2112,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="12">
         <v>45028</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="18">

--- a/ARQUIVO CLESIA.xlsx
+++ b/ARQUIVO CLESIA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD284B-CD98-48F2-9E5E-BE7C0B1F2CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD463B-8BC8-4CC6-9AED-4E316509567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,13 +2129,21 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="9">
         <v>45029</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10">
+        <v>27</v>
+      </c>
+      <c r="E14" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
@@ -2296,11 +2304,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2338,7 +2346,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2348,7 +2356,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CLESIA.xlsx
+++ b/ARQUIVO CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD463B-8BC8-4CC6-9AED-4E316509567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A085B6C5-689C-44C3-8BAE-9628D81699D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,13 +2146,21 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="9">
         <v>45030</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
@@ -2304,11 +2312,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2346,7 +2354,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2356,7 +2364,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CLESIA.xlsx
+++ b/ARQUIVO CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A085B6C5-689C-44C3-8BAE-9628D81699D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF2D328-3AA7-48F9-859A-40E3F36F7644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
